--- a/data/review/レビュー.xlsx
+++ b/data/review/レビュー.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/INIAD/Desktop/卒業論文/python/data/review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/INIAD/Documents/g_r/graduation-research/data/review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1078580F-A9CE-0A4C-B9A6-7937B4E319F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493D83A7-7518-4246-9E59-9044F025E549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{D8D79D6B-9EF7-8C4D-A25B-B95E632BB517}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="473">
   <si>
     <t>私は7月の平日にディズニーシーでこのアトラクションに乗りました!
 私がいつもディズニーシーに行ったら必ず乗るアトラクションなのですが、平日という事もあり25分ほどで乗ることが出来ました!
@@ -334,11 +334,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>This ride is cool!
-Like all rides you have to wait a long time but it doesn't feel so long because the design of the place is pretty interesting. The ride is awesome!</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>これは大好きなアトラクションの一つです！
 キューラインもいいし、アトラクション自体もとっても楽しいです^ ^
 トイストーリーマニアを捨ててもいいという人は朝一でセンターのFPをとって、インディのSBに並ぶというのもオススメです♡
@@ -351,10 +346,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インディージョーンズの主人公の方がリアルで、乗るたびに最初に言われる言葉が違い何度乗っても楽しいです！ガタガタな道を本当に走っているかのようで、乗り物酔いする方は注意ですね！人気なアトラクションのため待ち時間は長めですね(；´Д) 乗って価値あるアトラクションです(*'ェ*)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>毎回これに乗ると映画が見たくなります♪
 友達いわく、一番後ろの端の席が一番ゆれて楽しいそうですww
@@ -389,19 +380,6 @@
   </si>
   <si>
     <t>とても楽しいです！ただ、とても揺れて音が大きいです。私は大きい音が苦手なので、いつも耳を塞ぎながら乗ってます。目の前から大きな丸い岩が転がって来ると、岩の下の道に下ります。そこがシャッターポイントで、ピカッと光ります。笑顔を見せましょう！撮影された写真は出口付近で購入することができます！期間限定のフレームになるときもあるので、記念になると思います！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アトラクションの中が薄暗く、映画に出てきたセットがリアルにできていて、インディ・ジョーンズの映画好きにはたまらない♡ 音が大きく、揺れが激しい！少し怖いけれど、途中で写真も撮られるから良い思い出となるかも！！ 長い時間待つと思うが、隠れミッキーや細かいセットで並ぶのもへっちゃらなはず？！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シーと言ったらインディー！！ 楽しすぎる！スリル満点！揺れが激しくて、振り落とされそうになるけど、それがまた最高！インディーに乗らないとシーにきた！！って感じがしないくらい大好き♬</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ディズニーシーに行くと必ず乗ります♡ 待ち時間中の神殿の中が神秘的であっという間に時間が経ちます！ そして乗るとまた乗りたくなるー！！！ 激しい揺れが病みつきになります！！！！
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -471,19 +449,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ドキドキの冒険にさあ出発！です！((=゜Д゜=))ノ ハラハラドキドキ。時々必死笑笑 とっても、刺激の強い冒険◎ もう岩がゴロゴロ転がってくるところなんて私、本気で頭かがめましたよ笑 そのおかげで健在ですがねっっ←</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>この乗り物は機体が車なので乗り物酔いしやすいかたは、注意してください。子供から大人まで幅広い世代の方々が楽しむことができると思います！大冒険がしたいかたぜひ足を運ばれるとよいと思います。この乗り物は混むのでファストパスをとられることをおすすめします。または早めに足を運ばれるとよいと思いますよ。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>なんと言っても4人乗りなので、3人で行っても １人で乗ることがないというのは心強い！！ 場所によってスリル感が変わるので 何度乗っても楽しめる！！ 冒険心くすぐるアトラクションであり 絶叫が苦手な人でも比較的に 乗れる人が多い。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最高です！！！ 運転席に座りたいと言ったら案内してくれます♪( ´θ｀)ノ ちょっと小さい子どもには怖いかもしれないですが、ホントに冒険してる気分になれます！ 一番最初に行くのがオススメです！</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -621,21 +591,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ディズニーシーに来たら絶対に外せないアトラクションの一つです！ 待ち時間でさえウキウキしてしまうような内装で飽きません。 あの独特な匂いがたまらないです 冒険した感が半端ない！
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">本当に冒険しているみたいで、楽しいです。初めて乗ったときは、写真を取られたことにも気づかなかったです。笑 ドキドキハラハラして、面白いです。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">アドベンチャーをテーマにした映画インディ・ジョーンズのアトラクションです。 思った以上にダイナミックな動きがあり、風効果で何度乗っても飽きません(*^^*) 途中で出る煙、実は匂い付きとの噂！何の匂いか是非体験してみてくださいね☆
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>たくさんのれるので、クラスで卒業旅行でいったりしたときにおすすかも！みんなで同じポーズをしてとってみたりするのもすごくたのしいとおもいます！ 写真は、石が目の前から落ちてきた映像が流れた時に撮られますよ〜！
 そこそこ激しいアトラクションで、ジェットコースターが苦手な友人はとなりですごく叫んでました笑笑笑</t>
     <phoneticPr fontId="1"/>
@@ -727,11 +682,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">このアトラクションはジェットコースターほどの大きな落下はないものの 揺れが大きくかなり酔う可能性があります。 音も大きいため、身長制限をクリアーしている子供でも 気を付けて乗せてあげてください。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジェットコースターのような激しく上下したりはないものの、横揺れ？が多少激しいので ジェットコースター嫌いな人でも頑張ればチャレンジで乗れるものだと思います！ 私は最初に出てくる骸骨が怖かったです… でも本当にクオリティが高い 人もヌルヌル動きます笑 炎を吹きかけられそうになったりハラハラします笑</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -746,17 +696,6 @@
 大きなクリスタルが出てきて車がすぐ左折、またすぐ左折。
 二回目の左折の直前。壁の突き当たりの奥に泉が...。
 壁に水面が反射してます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>番号</t>
-    <rPh sb="0" eb="2">
-      <t>バンゴウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5077,6 +5016,1028 @@
   </si>
   <si>
     <t>指名されたときの嬉しさ、笑いは…最高です!!! 何度来ても面白い!!!１日何度も見に行っちゃうくらい!!! 終始笑いの絶えないアトラクションです!!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attraction_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attraction_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイストーリーマニア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パークの営業が再開した7月最初の日曜日にインしてきました。
+久しぶりすぎるトイマニ体験
+35周年の8月上旬まで、久しぶりの共通年パを持っていましたが、あまり朝からインすることもなかったので、いつも待ち時間の長いトイマニはその期間にもほとんど利用した記憶がなく…。
+また今までに利用した際はFPでしか入場したことがなかったので、屋外のスタンバイの待ち列などもじっくり見ることができ、新鮮な気持ちで乗車してきました。
+感染拡大防止のために行われていたこと
+建物の外のキューラインでは、足元に一定の距離を置いてゲストが並ぶためのラインが引かれています。またアトラクションの出口にはアルコールスプレーが置かれていました。これらはトイマニ以外のアトラクションでも行われていたことなので、あらためて書いておくまでもないかもしれないのですが、念のため。
+また、他にトイマニならではの取り組みだと思えた対応方法があったので、こちらについても紹介させて下さい。
+屋内のキューラインにて
+屋外ではスタンバイで使用しているエリアに並んでいましたが、屋内に入るとそこはファストパスの列。ぐるぐると迂回しながらゲスト同士がすれ違ってしまうスタンバイの列は使用せずに、ファストパスの列のみを使っていました。
+ファストパスの列に添って乗り場へと進んで行きます
+そのため、屋内に入ってしまえば乗り場までは5分かかるかどうかというぐらい、あっという間に乗れてしまいます。
+3Dメガネ置き場にて
+通常、3Dメガネの入ったカゴが複数置かれており、並んでいる間に自分で取るというスタイルだったかと思いますが、現在の運用ではキャストの方が手元に1～2つだけカゴを用意してあり、人数分の眼鏡を直接のふれあいはないように配慮した上で渡してくれるという方法になっていました。
+この方法によって、不特定多数の人が触ったかもしれないものを手に取ってしまう可能性を低くしているように思います。
+列の進みが早い理由
+この日はトイマニの他にもソアリンやセンター・オブ・ジ・アースなどの人気アトラクションをいくつも利用したのですが、他のアトラクと大きく違ったのが「間引き乗車」をしていないという点でした。
+タワテラでは中央の列を除いた1つの数字に対して1組ずつ、センターやレイジングでは1列目と3列目のみにゲストを案内する、ソアリンではグループごとに1席あけて座るなど、実際にライドを利用する際には本来乗車できる最大限の人数よりも少ない人数しか利用できないような席への案内方法が行われていました。
+しかし、1台の乗り物に2人組が背中合わせになって乗り込むトイマニでは、そのような間引きを行うことなく、いつもと変わらない人数を1回の出発ごとにご案内することが可能になっているのだと思います。
+ボーナスステージの研究をして再挑戦も
+この日だけで、トータルで3回乗車することができたトイストーリー・マニア。2回目に乗る前には、海外で60万点越えをした人の動画などからボーナスステージの出し方を研究した上、その条件を満たした場合にTDSでも出るのか？という実験をしてみました。
+その結果、チャレンジした3つのステージでボーナスエフェクトの発生を確認！しかしながら発動に時間がかかり、肝心なその後に出てくる高得点のチャンスを活かすことはできませんでした。
+屋内のスタンバイ用キューラインは使われていません
+…で、普段ならこれで「今日は残念だったね～」となってしまうところですが、待ち時間25～30分前後を閉園近くまでキープしてくれていたおかげで、閉園まで30分を切ったくらいでも、3回目の挑戦が可能でした。
+この日はそれが最後のチャレンジ！2回目の反省点を活かして細かく役割分担を話し合った上でのリトライでしたが、やはり実際に出てきてくれる高得点で稼ぐのが難しく、最終的なレベルは1回目と一切変わらずでした（笑）
+こんな楽しみ方ができるのは、現在の運営方法ならではだと思うので、もし「本当でこんなに列が伸びてるのに30分？」みたいなところに最後尾があっても、その表記を信じて並んでみて下さい。きっと、あっという間にアンディのおもちゃたちと遊べてしまいますよ～！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>おもちゃ箱
+キューラインに入ってすぐ周りの物のサイズが大きくなっていることが見て取れます。
+そうなんです。
+私達がおもちゃのサイズにまで縮んでいるんです。
+このおもちゃ箱やアンディのベッドが再現されてキューラインは、本当によく出来ているので皆さんも注意して見て下さい。
+なんど乗っても楽しい
+このアトラクションはシューティングライドですが、従来の物とは違い紐を引っ張って射撃するシステムで、アナハイムにオープンした当初は衝撃でした。
+また、映像に合わせてライドも可動するのでより熱中して楽しむことが出来ます。
+また、誰でも高得点の獲得が狙えます。
+(しかし、自分は高得点を取ったことがありません</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>😅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+また、アトラクションを楽しむのに映画を見る必要性が低いため、どんな人でも楽しむことが出来ます。
+混雑具合
+混んでいます。
+とにかく混んでいます。
+なので、出来るだけFPの取得をオススメします。
+☆が4つの理由は混雑具合が一向に収まら無いのと、アナハイムと違い最後にアンディの部屋が再現されていないので星を1つ減らさせて頂きました。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開園1時間前から並んで入場し、ファストパス発券所まで直行。なのに、すでに数百人の人が！キャストの人は「ここより後ろに並んでいる人はファストパスを入手できないかもしれません。」と言っていたけれど、頑張って並んだら8:45に「21:25」の券をゲットできました…
+3連休は1時間以上前から並ばないとファストパスは難しいと思いました(*_*)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人の感想
+シーで大人気との事なのでかなり期待していましたが、そんなに待ってまで乗りたいか・・・というと微妙でした。バケーションパッケージのファストパスがあったので乗りましたが、わざわざ激戦の中、ファストパスを取ってまでまた乗りたいとは思えませんでした。
+怖がりっ子の感想
+シューティングは楽しかったようですが、顔に水がかかったり（ほんのちょっとなのですが）、風が当たるのがとても嫌だったようで、もう一度乗れるファストパスがあるのにもう乗りたくないと、2回目は乗ってくれませんでした。移動の時に結構乱暴に動くので怖がりな子にはあまりお勧めできないかもしれません。
+高額なトイストーリーマニアに使えるファストパスを使用することが出来ず・・・親の私は心の中で泣きました(^^；)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何度か来ているのに、トイストーリーマニアに乗ったことのない私たち家族。子供が待てない、時間に限りがある、仙台から始発できてもその日はFPに間に合わない。もう、宿泊して朝並ぶしかない！！
+この日はあいにくの雨。
+オフィシャルホテル泊の私たち家族にはハッピーエントリーがないので、自ら並んで『ハッピーエントリー』しなくてはなりません。
+しかも、仙台から来ている私たちは17：00の新幹線で帰らなくてはならない・・・パークにいられるのは16：00まで。以下、FPゲットまでです。
+6：00　起床
+7：00　ホテル出発→リゾートラインにてディズニーシーへ
+7：15　入園ゲート着（サウスゲート・一番左端）
+8：00　入園開始
+8：15　ゲット（13：00～14：00の乗車）
+主人がFPを取りに行っている間、ニューヨーク・デリでホテルの朝食の振り替えでもらったギフト券で朝食を注文し待つことに。FPをゲットした主人と合流し、ゆっくりと朝食をいただくことができました。
+この日は朝は結構な雨が降ていて、並ばれている皆さん靴までびしょびしょでした。私たちが入園ゲートについた時点でも待っている方はいましたが、割と前のほうだったので、入園アナウンス後数分で入園できました。
+こうして、FPを無事ゲットでき、はじめで乗車したトイストーリーマニアはほんとに楽しくて、何度でも乗りたいな～と思いました。ただ、大砲を打つ紐？みたいのを引っ張るのが結構つかれるので、主人と私はバズの方がよかったかな。子供はすごく大喜びでしたよ～！！
+地方から行かれる方でトイストーリーマニアに乗りたい方でFP必要な方は是非参考にしてくださいね！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オープンから数年経った今でも大人気で、待ち時間が長いトイストーリーマニア。先日も乗ってきましたがとても楽しかったです。
+ファストパスも連日朝イチでなくなってしまう日が続いていますね。
+今日は“乗り方”ではなくトイストーリーマニアを“深く楽しむ方法”をお伝えします。
+先日キャストの方からトイストーリーマニアのバックグラウンドストーリーについて聞くことができたので皆さんにもその情報をおすそ分けです！
+舞台はおもちゃの世界
+買ってもらった新しいおもちゃ
+舞台は夜のアンディーの部屋。ママから買ってもらった新しいおもちゃ、カーニバルゲームプレイセットで遊ぼうと、アンディーは箱を開けて組み立てを始めました。
+するとママから、「今日は遅いから早く寝なさい」と言われたので、仕方なくそのおもちゃをベッドの下に入れて寝ました。
+それを見ていたウッディー達は…
+ウッディーやおもちゃの仲間達はその光景を見ていました。ウッディー達も新しいおもちゃに興味津々です。
+そこで良いことを思いつきました。アンディーが寝ているこの時間、このおもちゃをみんなで組み立てて、ベッドの下で遊ぼう！と。
+早速みんなで組み立てて遊んだところ、これがとっても面白い！自分達だけで楽しむのはもったいないので、近所のおもちゃ達も呼ぼう！と計画しました。
+近所のおもちゃとは…
+この“近所のおもちゃ”。これが私達ゲストのことです。ここを訪れたゲストはみんなおもちゃとして迎えてくれるんです。
+アトラクションの内部をしっかり見てみよう！
+このストーリーを知ったところで、アトラクションの中をしっかり観察してみましょう！
+建物を入った1つ目のお部屋
+ここにはこのアトラクションの鍵となるカーニバルゲームプレイセットが置かれています。この箱の上部には実際に乗っている間に登場するものがたくさん見えますね。
+また、3Dメガネを受け取るところをよく観察すると、乗り物の枠が見えます。さらにその横には丸い穴が開いています。私達が乗るライドはここに針金で固定されていたものなんです。
+また、部屋の上部にはたくさんの旗がかかっています。この旗、実はヨーヨーのヒモに取り付けられているんです。なぜかというと…このおもちゃにはヒモが付属していないんです。その文言もこのお部屋で確認できます。
+2つ目のお部屋
+ここが乗り場です。アンディーが寝るベッドがあります。ここから私達は乗り物に乗り込み、アトラクションがスタートします。
+ウッディー達はベッドの下におもちゃを組み立てたので、私達もベッドの中へと入っていくわけなのです。
+このように細かい設定がなされているからこそ、ただアトラクションで楽しむだけではなく気持ちも入っていくことができるんですね。
+皆さんも東京ディズニーシーに来たら是非、トイストーリーマニアで遊んでみてください！くれぐれもベッドの上で寝ているアンディーを起こさないようにしなくては…！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本情報
+2016/09/29 開園時間:8:00
+6:30頃から開園待ちをしました。この日は雨予報で空いており、前から３列目に並ぶことができました。一般入園で、ハッピー15は使っていません。
+ルート
+以前は入園して、左側の小道からゴンドラ乗り場の方へ向かって抜けることができましたが、今はできません。なので、ルートは１つしかありません。
+FPを取るまで
+走らずに、大した早歩きもせずに余裕で取ることができました。朝早くから並んでいるとそれだけ早い時間のものが取れます。
+この日は2枚目も取れました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アトラクションの題材にもなったトイ・ストーリーの影響もあり
+ＦＰ取得困難、ＳＢもかなりの待ち時間を要する人気アトラクションです。
+内容自体もかなり楽しく決してトイ・ストーリーの人気に頼っているわけではなく
+３Ｄメガネをかけトイ・ストーリーと同じくＣＧで展開される『的』を狙う
+シューティングスタイルのアトラクションです。
+弾を発射するのには『ひも』をその都度引っ張るので
+連射するのにも体力がいります。
+よって命中精度を上げた方が結果的に有利になり
+（スコアにも命中率が表示されたりと）
+ステージによっても発射する弾が普通の弾から
+輪投げの輪になったりとステージ構成がバラエティにとんでおり
+何度も体験したくなるアトラクションです。
+問題はＦＰの取りにくさとＳＢの長さで
+運よく短い時間で乗る事が出来たりＦＰが取得出来れば
+まさに夢の叶う場所でしょう。
+余談ですがオープン当初
+360分待ちとかＦＰが開園1時間で発券終了になったとか
+スタンバイの待ち列がＳＳコロンビア号の先の橋まで伸びた等
+色々と話題になりました。
+現在も気軽に並べるＳＢ時間でない事が多いですが
+是非体験して欲しいアトラクションです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用時間について
+ハッピー15エントリーで15分前に入園し、
+システム調整中でスタンバイでは乗れなかったので、FPを取得 時間は9:45から2枚と9:50から2枚の4枚取りました。
+FPを取り終えた時点でスタンバイが稼働をしてました。60待ち表示で並びましたが、実際は30分待ちで乗れました。
+1時間 後に2回目 FPの時間に乗れました♪
+とにかく連打連打連打とポイント高い的を狙うのですが、いつもショボイ得点です(笑)
+シーの中では、1番人気なアトラクションで楽しいですね〜
+トイストーリーな世界観なアトラクション
+何度も乗りたくなりますね(笑)
+直営ホテルに宿泊したら、朝一2回は乗れますね(^^)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私はこのアトラクションはトイストーリー好き・嫌いに関係なくすぐ飽きると思います。
+私もその一人です。
+一時期アーリーの時間を使うほどはまってました。
+ただ、しばらくすると、的の位地や登場時間もだいたい同じ。隠れミッキーが無い。など新しい発見がなく、待ち時間も長い為、すぐに乗らなくなりました。
+それに、ただでさえ、1日回ると疲れてしまうディズニーリゾートの疲れを腕の筋肉痛で悪化させると思います。
+乗るのはほどほどに。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ランドにもトイストーリーのバズライトイヤーがありますが、あれとの違いは自分が打ってるのがどこに飛んでいるのかが分かること！ 3Dメガネかけて撃ちまくります！（笑） ロケット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🚀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を狙うと水が出てきたり、とても面白いです。 とっても人気なこのアトラクション。ファストパスは朝イチでなくなるので要注意</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">腕が腱鞘炎になりそうです(笑) 大人も熱中できるシューティングゲームですね。 普通に並ぶと、えらいことになるので、開園と同時にファストパスとった方がいいです。 一番人気なのでは？
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーに行ってトイマニを狙ってる方
+やはりファストパスは絶対とるべきです！
+アトラクション概要
+シューティングゲームアトラクションになります。
+３Dメガネをかけてトラムについてる大砲（シューター）についてる
+紐をバンバン引っ張って弾を連射して的を狙って行きます。
+的にあたったときの爽快感！とにかく紐をひっぱりまくれ！ってかんじのシューティングです。笑
+朝一のファストパスを狙え！
+トイストーリーマニアはシーで一番人気のアトラクションになります。
+確実に乗りたい方は朝一のファストパス狙いましょう！
+ダッシュは絶対ダメ！他の方の迷惑になります。
+蝶のようにかろやかに人ごみを除け基本競歩で。笑
+朝一のファストパスをゲットするにも３０〜４０分は並びます。
+ファストパスは開園一時間で終了することもあります。
+スタンバイにしても開園３０分で１００分以上待ちなので
+確実に楽に乗りたい方はファストパスをゲットしましょう！
+私なりに気づいた高得点の近道
+私はこーゆうシューティングゲームは得意ではありません。笑
+それなのに高得点を語るなんておこがましいんですが
+気づいたことがあります。
+わたしはいつも真ん中の的ばかり狙って平均１１〜１２万点です。
+キャストさんによると女性の平均はやはり１０〜１２万点なのだそう。
+今回リベンジしにいったときに的に書いてある数字を
+よーーーーくみて撃ってみました（もちろんシューターを連射しながら）
+するとどうでしょう中央の的（１００〜２００点）にくらべ
+画面上部に１０００〜５０００点の高得点の的がある！！！
+的のサイズも大きいものから小さい物まで様々ですが連射すればあたる！！！
+だが難しい・・・
+そこで画面下部分をみると５００点の的がズラリ！！！
+ひょえーーーーラッキーーチャーーーンス！！！！
+こちらもここぞとばかりに狙いまくりです。
+そして連射の速度をあげる為にシューターの紐は短くもつ！
+これをやれば高得点の近道になるはずです！！！
+そんな語っておいてわたしは１４万点くらいしか行かなかったんですけど
+コツさえ掴めばグングンスコアがのびていくはず・・・！
+まだまだ修行中です。笑
+キューラインやアトラクションの設定がたまらん
+アンディーが寝静まった夜おもちゃ達がアンディーの
+ベッドの下でシューティングゲームをして遊んでいるという設定なので
+キューラインは廊下からアンディの部屋→アンディのベッド下へと続いてます。
+おもちゃ達が動けるのはアンディが寝静まった深夜の設定なので
+いつこのアトラクションにいっても
+キャストの皆さんは「こんばんは！」と挨拶してくれるんですよ♪
+キューラインにはおもちゃが散りばめられていてアンディーが書いた絵や
+塗り絵なんかがあってとっても可愛い。
+外観のモデルになった場所がある！
+アトラクションの外観は
+アメリカのコニーアイランドにあったルナパークをモデルにしたそうです！
+みなさんも調べてみてください♪
+エリア入り口やアトラクション入り口、照明や柱など
+とっても似てるんですよ^^♪
+何回行っても必ず新しい発見があるので
+次回もまた訪問します！
+とりあえずスコア２０万点を目指し頑張りたいです！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファストパスについて
+開園ダッシュは大抵トイマニのFP目当てです(´・ω・｀)たくさんの人で溢れていて、レールウェイの高架下や、ひどい時はニューヨークデリ横まで並んでいることも。初めは広がってならんでいますが、トイビルトロリーパークの手前から列が狭くなるので、すごい押されます（笑）
+確かに早く行けば行くほどFPは発券できますが、パーク内を走ると本当に危ないです。なんどもぶつかられて痛い思いをしています、この口コミを見ている方は、ぜひ早歩きをしてください…。
+Qライン
+我々ゲストは、ウッディ達と同じおもちゃになった設定でトイストーリー・マニアのなかへ入ります。アンディーの部屋の中を模した装飾は可愛らしくて目が離せません。映画トイ・ストーリーで見たものがあちらこちらにあるので話に花が咲きます。
+(ちなみに3Dメガネは眼鏡着用者でも全然平気です！)
+ゲストが乗るライドの横には、トイストーリーに出てきたキャラクターの絵が書かれているんですが、結構種類があるんです。
+お目当てのキャラに当たった時は興奮しました！笑
+体験内容
+ライドについている紐を引っ張って、画面に向かって玉を投げたりするんですが、
+引っ張る、という動作が意外と腕にこたえまして…笑
+体験中はひたすらやるのみなんですが、終わった後、結構しんどいです笑
+序盤で飛ばしすぎると、ラストのボーナスポイントで腕がヘロヘローになっているかも笑
+様々なキャラクターが動いて、喋って、並んでいる間から体験終わりまでずっと楽しいです！
+トイストーリー好きの方も、そうでない方も、是非一度体験あれ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラムに乗って移動しながら3Dの画面にむかって映像の玉を撃っていくシューティングゲームです。
+公式サイトには、
+「ウッディが広げた大きな口から中へ進むと、いつのまにかおもちゃの大きさになっちゃった?!アンディのベッドの下で、おもちゃの世界のシューティングゲームを楽しもう！」
+とあるようにウッディの口の中ではすべてのおもちゃがデカいです!!
+待ち時間が長いので写真を撮りながら進むのも一興かと！
+アトラクション自体はポテトヘッドの案内のもと3Dメガネを取り、かけながら自分の目の前にあるミニ大砲(?)のひもをどんどん引いて的を打っていく感じでした。命中率やランキングも出るのでみんなで競争することもできます！
+前に書いたように待ち時間がほとんど100分以上です。外には屋根がない所があるので日に照らされるととても暑いです?でも夏にはミストが出るので熱中症対策はしてあるようです！
+また、壁のイラストには隠れミッキーも…!!探すのも楽しいです♡
+シューティングなので世代を超えて楽しめると思います！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オープンしてから5年経っても人気の高さは変わりません。
+シューティングゲームタイプのアトラクションで、ランドにも「バズライトイヤーのアストロブラスター」がありますが、光線銃を使って接地されてる的を狙うバズとは違い、こちらは的も球も全て3D映像化されています。
+バズは自分が打っている光線が分かりにくく狙いにくいですが、こちらは打って球が映像で映し出されるのでとても狙いやすいです。
+またゲーム内容もいくつかあり、特殊効果を使った仕掛けもあったりで最後まで楽しめます。
+アトラクション内容もそうですがＱラインも細部までトイ・ストーリーを再現していてファンにはたまりません。
+ライドに乗り込み、メインゲームの前に操作の仕方を含めウォーミングアップが行えますが、ここでは軽く操作するぐらいにしておいた方がいいです。
+このアトラクションは紐を引いて球を飛ばすので、これが最後になってくるとかなり疲れます。
+人気が高く、空いていてもこのアトラクションだけは待ち時間が長い事もあります。
+あまり待たずに乗るならファストパスを取るか、閉園1時間前がオススメです。
+混雑時はスタンバイの案内が早めに終了するかもしれませんが、比較的空いている日なら30～40分程度で乗ることも可能です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人気の理由がわかります！！ リゾートの中で一番楽しいアトラクションだと私は思いました。くるくる回転するので乗り物酔いする方にはきついかもしれませんが、とても充実しています！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎回、シューティングに夢中になり細部まで意識していなかったのですが…(^o^;)
+シューティングの際に起こる現象が3次元で起きている事に気付きました(゜ロ゜;ノ）ノ
+詳しくは書かないので体感してもらいたいのですが！
+そここそが、今までの二次元世界のシューティングゲームと違うのだと驚かされました(゜ロ゜;ノ）ノ今更(笑)
+ハイスコアーを狙うにはやっぱりハイスコアーの的を狙うに限りますね♪
+結果の桁が違います！笑
+最後の成績発表でその日のトップスコアーになってしまいかも！！！
+ファストパスを取るなら、やっぱり朝イチ！マクダックデパートメントストアまで伸びた列を見ると止めてしまいたい気持ちにもなりますが…案外早く発券できると思います！相変わらず人気のアトラクションなので、やっぱりスタンバイで並ぶよりは、ファストパス狙いが良いかと♪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015年2月9日の月曜日（平日）にTDSのトイストーリーマニアのエリアに行ってきました。
+朝10時くらいに入園したときにはFPは終わっていて取れませんでした。
+夜遅い時間なら待ち時間が短くなるかもと淡い期待をしていたのですがダメでした。
+PM8時（ファンタズミックが始まる時間）の時点で80分待ちが最短でした。
+閑散期の平日といえどもこの待ち時間にしかならないというのは、トイストーリーマニアの変わらぬ人気に驚きました。
+この日の天気は午前中は曇り時々雪、午後からは晴れてました。TDSではバレンタインナイトと謎解きもやってました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かわいい！楽しい！3D映像もキレイ！
+子どもはもちろん大人も楽しめる！
+アトラクションの外ではポテトヘッドのショーがいろんなバージョンあっておもしろい！
+システム調整の期間にはウッディたちがグリーティングにきてくれることも(*^-^*)
+FPを取れたらラッキー☆ってくらいの人気！
+なるべく開園から１時間以内発券所へ！
+実はトイ・ストーリーマニア近くのタワーオブテラーのFPを取ってから、トイ・ストーリーマニアのFPを取ればより数多くのFPが取れる！
+タワーオブテラーのFPの利用時間が開園から１時間以内のものが取れるのであればそれを取ってから取るのが裏技！
+１人では無理だけど、二手に分かれてトイ・ストーリーマニアのFP発券の列に並ぶ必要があります！
+タワーオブテラーlevel13期間中は難しいかもしれません！
+ホテルアーリーの方は確実かと(*^^)v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めっちゃ楽しいです！
+ハロウィン初日に初めてライドしました。朝一でファストパスを取りに向かったのですが、ファストパス列で30分待ちでした。スタンバイは1日を通して80分〜100分待ちだったと思います。
+スタンバイ中に退屈しないよう、かわいいおもちゃの装飾がたくさんありました。
+アトラクションは、的当てゲームなんですが、いろいろなステージがあって、的がわかりやすくて本当に楽しいです！一緒にインパした人も1番楽しいアトラクションだと言っていました。
+閉園近くになってもスタンバイ待ち時間が長いので、ファストパスを利用することをオススメします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出来てから人気が全く落ちないトイストーリーマニア！
+朝一でFP(ファストパス)を取りに行く方は非常に多くて、殆どの方が開園ダッシュ(と言うか猛ダッシュ……)
+幼い子や妊婦さん、お年寄りも居るんですよ～
+せめて、TDRNAVIに来ている方だけでも、、、
+ダッシュは止めて下さい(T^T)
+遠方からはるばる来ているゲストさん達にとっては、その日しかなくてどうしても乗りたい！！
+と言う方も沢山いらっしゃるかと思うのですが、パークに来ているゲストさん皆が楽しめるようにお互いに配慮しましょうね(*^^*)
+どうしてもな方は早足でお願いしますσ(^_^;
+さてさて、アトラクションの詳細は。
+アニメ「トイ・ストーリー」を舞台にしたアトラクションです。
+中に進んでいくと、ゲストさんは皆オモチャサイズに！
+大きなコンセントに大きなベット！
+お部屋にあるもの全てが大きい！！
+オモチャ達の気持ちになってスタンバイも楽しんで☆
+小さなトロッコのような物に乗ってクルクル回ったり不規則な動きをしながら各お部屋を進んでいきます。
+ライドする前に、3D眼鏡を受け取って装着☆
+安全バーを下げると手元にはアナタ専用のシューティング機械が！
+丸いボールを持って紐を引っ張り的を狙います。
+各お部屋には、様々な仕掛けがあって
+テーマに合わせたシューティングゲームがお楽しみいただけます♪
+的が大きい物も沢山あるので、お子様も絶対楽しいよ！
+キャラクターも可愛いし、いっぱい登場してくれます♪
+パパやママより高得点がとれちゃうかも？！
+なるべく沢山の点を狙って頑張ってね！
+あ、動きが不規則なので、、、
+乗り物酔いしやすい方は酔い止めを飲んでからの方がたのしめるかも。。。
+一歩中に入ればオモチャの世界！
+可愛い世界を楽しんで☆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FPを開園と同時にお友達が取りに行ってくださって乗ることが出来ました(｀･ω･´)ゞ待っている間も内装が素敵なので楽しめると思います(*^^*)わたしは、個人的にトイ・ストーリーの世界観が好きなので待ち時間も楽しめました(^O^)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル通りアトラクション自体はとても良いです！
+乗ってて楽しいし、ところどころ面白いし
+でもやっぱり待ち時間が長すぎますね
+絶叫制覇！とか絶叫バンバン乗ろうぜ
+みたいな人達にはあまりオススメしません
+まず朝、トイストーリーマニアのFPを取るだけで結構時間かかります
+それだったら朝、タワーオブテラーのFP取ってセンター乗った方が絶叫好きにとっては効率的だと思います
+アトラクション自体は素晴らしいです！
+誰が乗っても楽しめると思います
+絶叫苦手な方は絶対乗った方がいいですよ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とにかく一番ならびます！
+ということで、朝一FPを取りに向かうのが鉄則です！
+ちなみに、エントランスからトイマニまで、リドアイル横を通るよりも、ヴェネチアンゴンドラの前を通る方が階段は多いですが若干の近道ですので、体力に自信のある方はそちらからトイマニを目指した方が早いでしょう。笑
+アトラクション自体はとても楽しく何度でも楽しめます！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間帯によりますが、案外60分も待たずに乗れたりしちゃいます！ 平日に限りますが(´・_・) 3Dメガネをかけてゲームをするのですが、小さい子でも遊べると思います★ ただ親の私が夢中になってしまいましたがw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★を１つ減らした理由は、 混みすぎて、１回乗れればラッキー的なアトラクになってること。あと、乗ると腕が…(笑) でも、トイ・ストーリーがみんなに愛されてて、楽しいアトラクであることに変わりはない!! シーに行ったら乗るべきですね♪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイ・ストーリーマニアFPが終了するくらい人気のアトラクションなので、 プレミアムガイドツアーを利用して乗りました。 3Dメガネをかけて次々でてくるキャラクターと一緒にゲームがたのしめました。 最後に自分の点数が表示されます。 楽しくて何回もチャレンジしたくなりました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FP取れないと厳しいですが、絶対取って必ず乗ります！3Dなので、何回も乗ってるのですが毎回驚かされます！キャラクターが可愛くて笑顔でシューティングしてます！最後の連打はうでがちぎれそうになるほど頑張ります！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝一番で並んで乗ってきました！相変わらず人気のアクションです！並んでも乗りたいのはわかります。なかなか難しく点数とれないけど、それでもたのしいです。ラッキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このアトラクションは開園とともにすぐ長蛇の列ができます。ファストパス午後にはないくらい。なのでまず開園したらすぐダッシュでこのアトラクションのファストパスをとってから他のアトラクションにいくことをオススメします!ファストパスで並べば1時間もしないうちに乗れるし、本当に楽しいです♪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9月ハロウィン初日に行きました。
+開園と同時にFPを求めてはや歩き。
+しかし既に30分待ちくらいの待機列でした。
+スタンバイが60分だったので、タワテラのFPを取り、スタンバイで並びました。
+実際は60分も待たずにライド出来ました！
+建物の中に入ると、可愛らしい飾りだらけで、写真を撮っているとあっという間でした☆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝ーは混雑具合が緩く、早目に楽しめますが、結構動くのでウォーミングアップは必要ですね~。でも何度やってもクセになるアトラクションはココ以外ないのでわ??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイストーリーに出てくるキャラクターたちと一緒にまわる、シューティングゲームです。とても難しい！各ステージである的に充てればボーナスステージ？のようなものがでてきて、得点を稼ぐことができます。腕がほんっとにつかれるけど、ほんっとにたのしい！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人気のアトラクションなだけに…なかなか乗るのが難しいですね…でも毎回毎回、入場したら子供がダッシュで走ってファストパスを取りに行っています(笑)それで、かなり並んだ結果…いつも夕方近くに取れています♪トイストーリーはDVDで全巻持っています♪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行くと乗ります♪子供たちもお気に入りで多い時は三回乗ります！下の子が２歳の頃から乗ってますが、怖がったりすることなく楽しんでいます。やはり混雑はしているので我が家は必ずファストパスを取って乗っています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーで一番混んでて並ぶ時間が長いんじゃないかと思うけど…並ぶ価値あり！！ファストパスもすぐになくなっちゃうから、オープンしたらまずはトイマニのファストパスをとりに行くのがいいと思う！ 2歳の息子もすごい楽しんで乗ってます！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何も知らずに行ったせいか、ただのシューティングゲームだったことにすごくがっかりしてしまった。ほんと狙って撃つだけやったからあんま「乗り物！」って期待は禁物。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人も子供も楽しめる！トイ・ストーリー好きには、もってこいです！　とりあえずFPで何とか２回乗れたけど、何回乗っても飽きない！順番くるまで待ってる間も、中で待ってるキャラ達に、キュンキュンしっぱなしでした！　　混み具合は覚悟の上で…。終わった後の、腕の疲れは半端なかった…。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まだまだ待ち時間やファストパス待ちの列がながーーく続いているので毎回諦めてましたが、今回はディズニーランドホテルに宿泊したので15分早く入園でき、待ち時間10分ほどで行けました！その後ファストパスにも並びましたが、30分ほどで16時台が取れましたよ。
+中に入ると大きなドアや積み木があったり、まるで自分達がおもちゃになったように感じます！
+アトラクションは子どもも大人も楽しめるシューティングゲーム。最後にボーナスタイムがあるので、最後までどうなるか分からず、必死にやってしまいます。笑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何回も乗りたくなってしまう！ なのに、平日でもファストパス取るのは難しくて 短いなーと思う時でも60分は待ちます。 中に入るまでも長いので、暑い時期や寒い時期は大変かも。 中に入ると、オモチャになってアンディの部屋に入ってしまったような。。。 とても可愛らしい空間で、楽しいゲームに挑戦出来ます♪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人も子供も楽しめるアトラクション!!
+ゲームの遊び方も的を目掛けて、シューティングし、得点を競い合うと言った分かりやすいもので◎
+50代の両親も好んで、これをやるためにインパしてます。次こそは、高得点!!と意気込んでます。一緒に行った友達と競争し合うことも思い出の１つに、なること間違いない。ただ、一生懸命になりすぎて、腕が筋肉痛になることも…(笑)
+あと、待ち時間が長いことも難点。朝イチか大きなショーがある時間だと割と空いてるかも♪夜に行き過ぎると、受付締切されてることも多々あるので気をつけて!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝からファストパスとるだけでも、１時間並び、ようやくファストパスとれ、乗れたのが14時すぎ。
+内観ゎ、非常に可愛らしく自分がおもちゃになったような感じ。
+とにかくめちゃくちゃ面白い！ディズニーのﾊﾞｽﾞｰくらいかと思いきやあんなもんじゃない。これは毎回混んでる理由がわかる。
+朝から来園できるなら、絶対ファストパス取りに行くべし。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友達と2人で行ったのですが、バトルできるので大人気もなく2人して必死に勝負しちゃいました。笑 ギリギリまで私が勝っていたのに最後の最後に逆転(T ^ T)！！ 大人からこどもまで、本当にたのしめます！ 絶叫系が無理な方でもこれなら大丈夫♡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタンバイの並ぶところからトイストーリーの世界に入ったような雰囲気で、気持ちもワクワクしました。 アトラクションもとっても楽しかったです！ 彼と二人でわいわいキャーキャー言いながら競いあって、何回も遊びたくなるアトラクションでした！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3時間やっと並んで乗れました♡！ ずっと3時間かーって悩んで並ばずにいたんですが、今回こそ頑張って並ぶぞ！と並んでやっと乗れましたヾ(*´▽｀*)ﾉ ランドにもバズあるけれど、3Dってゆうのもあるからか、凄く面白かったです！ これは並んだかいありで、また絶対乗りたい乗り物リストの仲間入りです♪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開演してすぐトイマニへ走らないと後からじゃはいれません！ ファストパスは必需品！ ハイスコアを目指して何度も乗りたくなります！ 大人から子供まで誰でも楽しめるアトラクション。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントダウンで初めて乗ることができました!!ランドにあるのとはまた違ったトイストーリーの世界に入ることができるので楽しかったです♪(*´艸)今度は酔わない程度に楽しみたいですw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外も中もトイストーリーの世界観が広がっててとても明るく楽しい雰囲気のアトラクション。 子供にも大人にも人気で待ち時間が長い理由も納得！ 初めて乗ったアトラクションだったけど、また次も絶対乗りたい！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人気アトラクションなので長時間並びましたが、並んでいる間もセットが可愛くてアトラクションも期待以上の可愛さと楽しさでした！友達と競って楽しめるしトイ・ストーリー好きなら誰でも虜になると思われます！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アトラクションは凄く面白いです! 人気なのでFPは一番に取りに行くこと! しかし普通のスタンバイでも至るところに隠れミッキーがいるので楽しく待つことが出来る素敵なアトラクションです♡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このアトラクションはゲストアシスタントガードを持っているゲスト専用の待ち時間を設けています。だから長時間待つことが困難なゲストもこのことをキャストにつたえてみてください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さすが人気アトラクションだけあって、朝一でFP取らないと、午後になったらもう終わり!!ってこともあります。
+スタンバイも1時間待ちなんて当たり前だったり!!
+でも、乗る価値はあります!!
+てか、乗らなきゃ損!!!!
+自分が放った球の弾道が分かり、点数も入り、テンションあがりまくり!!!!
+3D映像だけど、酔うこともなかったです。
+ただ、張り切りすぎると筋肉痛。。。になると思います(^-^;)
+でも、楽しいので是非!!!!
+パークに入ったら真っ先にFPを!!!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供から大人までみんなが楽しめるアトラクション！！友達とすごく盛り上がってやりました！シーに行ったら一回は乗るべき！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初めて乗るのはドキドキするけど、あれはやっぱり子供向け！大人は乗ってもあんまり楽しくないかも… けど中が可愛いからトイストーリーが好きな人はそれだけで楽しい！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FPが取れればいいですが、取れないと平日でも120〜180分待ちです。
+私は地方から行くのでシーに行く日は朝から気合を入れて並びます。
+そしてパークオープンと同時に皆さんトイストーリーマニアへ走り出す。
+危ないので走らないで下さいと言うキャストさんの声を無視して走る大人達。
+これはよくないのでマネしないで急ぎ足(笑)で行ってください。お願いです。
+アトラクションの内容は3Dメガネをかけ画面に出てくる的当てや輪投げなどをして得点を競うゲームなのであまり小さなこどもは不向きかもしれません。
+ですが、トイストーリー好きの2歳の息子は乗っているだけで楽しかったみたいです。
+雰囲気がとっても可愛くて楽しいですし、所々でトイストーリーのキャラの声が聞けるのもこどもからしたらワクワクするみたいです。
+あと、ちょっと動きが荒いのでこどもやお年寄りの方は乗り物が動く際と止まる際気をつけてくださいね。
+息子は動く度私の腕を握りしめていました(笑)
+子供がいる方はFPを取らないとなかなか待ち時間が長いので乗れないと思いますが、並んでも乗る価値はあります！
+ちなみに朝一でもFPは30〜40分くらい待ちます(；´Д`A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これは、めちゃくちゃ楽しい！
+小さな子から大人まで存分に楽しめるアトラクションです！
+同じシューティング系のバズライトイヤーのアストロブラスターよりも、ちゃんと手応えがあり達成感があるところがいい！
+２日続けて朝一のファストパスはこれにしました☆
+ファストパスは必須。
+ハロウィンの仮装期間に行きましたが、開園10分前くらいに並び走らずにファストパスゲット！
+それにしても、凄い人の波でした。。。
+オープン直後を考えると恐ろしい(^-^;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とにかくファストパスを取らないと、土日は特にスタンバイで乗るのはキツいです。
+スタンバイで乗るなら朝一ですね。二回以上乗りたいなら、朝一でファストパス→スタンバイにそのまま並ぶのが良いと思います。
+アトラクションとしては、3Dもキレイだしシューティング要素がとても面白いです。
+でも、腕が本気で痛くなるので連続で乗るのはちょっと辛いかもです。
+このアトラクションができてから特にスタートダッシュが本当に多くなっているので、お子様連れの方は気を付けて下さいね。危険なことはやめてもらいたいです…。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まだ一回しか乗れていませんが、すごく楽しかったです！いつもFPが取れず、スタンバイがすごく長いので諦めてしまいます(；´Д) 翌日、筋肉痛になるかと思いました（笑） ただガタンっと止まったりするので、少々荒い感じもしますが…どのアトラクションも同じかな？と思います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>大きなウッディーの口の中に入った瞬間から私達はおもちゃになる。
+そこはアンディーの部屋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>❤❤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+おもちゃから見るとこんな感じなんだと不思議な気分。いざ、
+3Dメガネをかけてライドオン！
+とにかく的にめがけてひたすらシュポシュポ！！
+筋肉痛間違いない（笑）
+でもどれだけ疲れても点数稼ぎたい（笑）
+子供に負けてられない（笑）
+必死でシュポシュポ（笑）
+終わったあと後悔（笑）
+まだまだ人気の高いアトラクションなのでファストパス取れればラッキー！
+オープンダッシュは絶対だめだよ！
+小さい子にぶつかったり怪我させちゃう！
+それだけで台無しだもんね
+一秒でも早く！それはわかりますがルールは守んなきゃね！
+ポテトヘッドも楽しかったょー！</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディズニーには彼とよく旅行に行くのですが、過去３回行って３回とも乗れました(o^^o) 今では、FPも取れるようになったからいいですね☆ そして、今のところ２勝１敗で私の勝ち中です(￣▽￣)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このてのアトラクションは高得点目指して頑張っちゃいますね♪ でも頑張り過ぎるとアストロブラスターと違って打ちっぱなしができないので、腕が痛くなっちゃいます(^-^; しかしアストロブラスターより的が大きめなので子供にはやり易いようです♪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わたしはディズニーシーのアトラクションツアーに参加したのですぐに乗れましたがいつも待ち時間がすごい人気アトラクションです。中にはいっていくとアンディのお部屋になっていきます。大きなドアやベッドがあり、気づいたら私たちがウッディたちと同じ大きさになっています！ライドに乗ると3Dメガネをつけて輪投げやお皿割りゲームがはじまります。これはほんとうに楽しいです。音もかわいいし、お皿の割れた音が手に振動で伝わってきます！ぜひ乗ってみてください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その時の着衣のせい？なのか 揺れに違いがある事をキャストさんに話したら ライドコースは2つあるので、違いがでるみたいです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アトラクションがオープンする数日前は、並ばずに乗れるプレオープンの可能性あり！ トイマニも、オープン予定の二日前にシーにインパしたら、偶然にもプレオープンしていて、運良く待ち時間なしで乗れました＼(^o^)／</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初めて乗ったとき、画面デカ！って…（≧∇≦） 本気で妹と点数狙いしました！ 年甲斐もなく勝ちましたが 中指の皮が剥けましたwww(￣▽￣) ただ、後半は目がチラチラ…☆ また10月に行く予定なので FP取って乗りたいです♡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とても楽しいです！朝はゴンドラルートでいった方が混雑しないよ！ファストパスをとるのもいいけど、ファストパスの列が並んでるときはアトラクションに並んだ方が早かった！　友達や家族と分担して他のファストパスをとるのもよし!みんなでならんでおもちゃの世界を楽しむのもよし
+とにかくめちゃめちゃ楽しいから是非一度はのってみて！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子どもが2歳のときに
+もう発券できるかわかりませんといわれ
+並んだらファストパス取れました笑
+比較的すいている日は
+夜スタンバイがそこまで待たずに
+入れることもあるので
+FPとれなくても可能性0ではないです。
+が…日により200分FPに待つとかもあり
+BBの前まで並ぶ列をみたこともあるので
+運次第ですかね？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝一番でFPとスタンバイとの二手に別れて並ぶと、 1日に最低２回は乗れます！ オモチャ箱の中に入ってしまったような楽しい空間です。 内装を隅々までみると、 ディズニーらしく、 細かい部分も楽しめます（＾∇＾）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイ・ストーリー・マニアは子どもだけでなく、大人でも楽しめるアトラクションです！
+夢中通り越して、むきになってしまう程の魅力を持っています(笑)
+自分の頭の中に、自分の得点を覚えておいて、何度も行って
+自己新記録に挑むもよし、高得点の的を狙いまくるもよし！
+３Ｄならではの楽しさ！
+得点が入った時の爽快感！
+ストレス発散にもなって気持ちいいｗｗｗ
+さらに、あらゆるしかけのおもしろさ！
+たまりません！！
+いまだに、激混みな理由はそこにあり！！でしょう☆
+高得点はひそかに現れ、狙いづらいですが、
+焦点を当てて狙い撃ちすれば、絶対に当たります。
+できることならば、１日に３回乗りたいアトラクションですね。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつも混雑してますが、クリスマスイブに乗れました！ 開園と同時にファストパスは混むので、まずは並ぶと1時間くらいで乗れます！ 大人も楽しめるシューティングゲーム♪ 水しぶきがかかったり、体感できるのがとても楽しいです！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中に入ってからアンディの部屋が凄く可愛い！全てが大きくて、本当にオモチャになった気分♡
+眼鏡をかけて、いざ出発！！
+キャラクターも３Dで出てきて、より身近に感じました！
+ポンポンポンポンって音も可愛かったし、大人も夢中～♪ヽ(´▽｀)/
+ただ、１才６ヶ月の息子には、ちょっと早かった様で、神妙な顔をしてました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイストーリーシリーズが大好きな人にとっては並んでる間たまらない作りになっていました！小さなお子様でもあんなにいっぱいかわいいおもちゃの世界が広がっていたら退屈にならないでしょう♪
+想像していたよりも意外と長い時間乗ることができ、ゲームの内容も盛りだくさんでした♡
+何より、キャラクターが本当に可愛い♡
+癒されたし楽しいしで最高のアトラクションでした！
+乗る前にぜひトイストーリーシリーズを見てみてください！乗る時の楽しさがきっと倍増しますよ！！(*ﾟvﾟ*)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイストーリー好きにはたまりません！ とにかくかわいい！おもしろい！ おもしろいから今でも待ち時間すごいんだと思いますが…あの時間見て並ぶ覚悟はないです… 乗りたかったらファストパス必須！朝一ゲートが空いたらまずとりに行かないととれないですが… その点で−☆。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝から走ってファストパス取りました。 予想通りの面白さでした。 トイ・ストーリーのせかいが満載で子供も大喜び(*^^*)映画の世界に入ったみたいでシーの中でもお気に入りの場所です。 乗った人は絶対リピーターまちがいなしです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半端なくあるけど 待っただけあるぐらい 楽しめる アトラクションだなと思います！ 口から入って乗り物までの 待つ所？も 可愛くて好きです。 でもやっぱり待ち時間なく 乗れるのがいいですね！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オープン当初から絶大な人気を誇るトイマニは、待ち時間がハンパないです。空いている時間があれば教えて頂きたいところです！このようか大変人気なアトラクションはFPの利用が賢いです!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連休で4時間待ちで乗りました。長い待ち時間だったけど、並んだかいはありました。
+まず建物の中が可愛すぎ。色んな工夫がされてて探せば探すほどキャラクターが隠れていたりと、本当にトイストーリーの世界に入った気持ちになれます。
+乗り物も点数を競い合って、必死になりすぎて終わったら腕が痙攣していました笑。次行ってもまた絶対乗りたいです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスターズインクや、バズなどキャラクターと遊ぶアトラクションが、あるなかで！現在ぴか一！すごい人気なのでファストパスも取りにくいけど。 待ってる間もアンディの部屋見れて中々面白いです☆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休みの日はもちろん、平日も待ち時間が長い。
+ファスト、スタンバイ共に。
+出来た当初は、行列はどうせ最初だけでそのうち落ち着いて、他のアトラクションと待ち時間変わらんくなるだろう‥と思っていましたが、乗ってみると皆が並ぶ理由がわかった！
+ゲームセンター感覚で、ストレスも発散出来るし友達と競えるし、はじめはバカにしていたのに、ハマっている自分がいました。
+外で並んでいる時もいくつか隠れミッキー探して時間も潰せます。壁側限定ですがｗ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">この乗り物は、トイストーリー好きなら必ず乗るべき乗り物です！ トイストーリーの登場キャラクターがほとんど登場しています。 ただ、このゲームを、本気ですると必ず筋肉痛になります…
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行くとかならず乗ります！FPを取ってもSBで乗ったりもします。アトラクションの周りの広場でも楽しめますし、待ち時間も隠れミッキー探しや映画の世界を味わうのに楽しいです。
+アトラクションでは大人も子供も夢中になってしまいます。腕が疲れるくらい(笑)。
+グループで向かい合わせに乗りたいと伝えると
+動きながら友達の顔が見れたりゴールでも向きあって感想伝え合えたりするので楽しいですよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ファストパス発券のために1時間近く並びましたが、アトラクションはとっても楽しかったです！夢中でやってあっという間に終わってしましました</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>☻</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">去年、トイストーリーマニアができてすぐ行きました。開演してすぐファストパスをとっても夕方17時頃のでした。乗った感想は楽しいけど、ずっと打ち続けるアトラクションなので、とにかく手が疲れます。アトラクション乗るまでのトイストーリー世界観を味わえる感じがよかったです！
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターが可愛いのはもちろん。高得点目指して真剣になってしまいました。何回でも乗りたくなるアトラクションです。ただ、動きが激しいので小さい子どもを乗せてあげられないのが残念。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言わずと知れた大人気のアトラクションですね！ 降りた時には腕が筋肉痛になってしまうくらい夢中になってしまうほど楽しいアトラクションで、乗ったことがない方は1度は乗って欲しいです！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイストーリーは、子供から大人までしっかり楽しめるアトラクションです。 よく似たようなアトラクションはありますが、トイストーリーは別格の面白さと達成感があり、外に出るとスカッとしますよ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dですごいし風も出るからすごかったです！！ 飛び出してくるし真剣にやり過ぎて腕が毎回疲れますｱﾋｬﾍ(ﾟ∀ﾟﾍ)(ﾉﾟ∀ﾟ)ﾉﾋｬ でもその分やる価値はあります！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腕つりそうになるけど楽しすぎる♡笑 みんなで点数争えるのも楽しさの一つ！ 乗り物待ちの壁一面も可愛すぎるし飽きません！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイストーリーマニアがオープンして1週間経った頃にインパしたのですが、ものすごい人でした！
+でも、友達が頑張ってファストパスを取ってくれて何とか乗れました^ ^
+今でもあっという間にファストパスは発券終了になってしまうアトラクションなので、絶対に乗りたいという人は週末なら、開園2時間前には並んでた方が良いと思います（≧∇≦）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">いつ行っても180分待ち以上で頑張って並ぶにしても 長すぎます。FPも取れません。 次回行くときにどこまで状態が良くなっているか期待です。 また、冬季に行きましたが空いていて快適に乗れました。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空気砲を引く腕がめっちゃ疲れるけどはんぱない。デートで彼氏と彼女対戦しながらぜひ盛り上がってもらいたいアトラクションです！いやっ、かなり盛り上がります！興奮します！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただ打つだけなので子供も簡単でとても楽しんでました！ 点数が高いのを射ったり、どんどん増やしてハシャいでました！ 大人も子供と点数を競ったり出来て楽しめます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人気のアトラクションなので朝一ファストパスを取るべし！！ 子供はもちろん大人まで楽しめちゃうアトラクションです！！！ トイストーリーが好きなら乗らないと損ですよ～♪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初の一週間くらいで行きました！確か6〜7時間待ってアトラクションに乗った気がします。 その日は初めてだったし、たくさん待ったから童心に返って思いっきり楽しめた気がします。 また、シーに行ったら乗りたいなぁ♪( ´▽｀)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アトラクションに乗ってからはもちろん楽しいのですが、待ち時間も飽きさせないのは、さすがディズニー！ まるで自分がオモチャになったように感じる仕掛けがいっぱいです☆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2012年に約115億円の投資をし、アメリカンウォーターフロントの新エリア「トイビル・トロリーパーク」内に設置された[1]。正確な場所は、ブロードウェイ・ミュージックシアターとアメリカンウォーターフロント救護室の建物の間の奥、元々平面駐車場の一般用区画のあった場所。エリア及びアトラクションと共に、新ショップ「スリンキー・ドッグのギフトトロリー」などもオープンした。
+内容はディズニー・ピクサー映画『トイ・ストーリー』シリーズを題材にした、TDR初の3D映像を使ったライドアトラクション。おもちゃ箱に入り込んだゲストは3Dメガネを装着したまま「トラム」と呼ばれるライドに乗り込み、トイ・ストーリーに登場する仲間たちと一緒に、立体映像の様々なターゲットを狙うゲームに参加する設定となっている。
+アトラクション及び新エリアの外観は、古き良き移動遊園地をイメージしており、実在したルナパークという遊園地がモデルになっている[2]。アトラクションの入口には高さ8メートルものウッディの顔が設置されている。ウッディの口から入るとそこはアンディのおもちゃ箱となっており、ゲストは知らぬ間におもちゃの大きさになっているといった演出がなされ、待ち列には巨大なトランプやおもちゃが設置されている。ウッディの顔から入りおもちゃサイズとなったゲストは、トラムに乗ってアンディのベッドの下に入りゲームを楽しむという演出になっている。
+ファストパスの発券機はトイビル・トロリーパークの奥、スタンバイ用Qラインの左側に8台設置されていた。なお、他のアトラクションと異なりファストパス発券所はチェーンで区分けされている為、発券が終了した場合はスタンバイのQラインとして使われる事がある。
+オープン前の6月26日から7月3日にかけてスニークプレビュー、7月5日にプレスプレビューが行われた。
+7月5日よりディズニーリゾートラインにて、キャラクターがラッピングされた車両「トイ・ストーリー・マニア!号」の運行が開始された。2013年3月31日まで運行された。
+オープン初日はスタンバイ列は4時間を超える長蛇の列ができ[3]、待ち時間の表示は最大で400分待ちを記録した。列はケープコッド方面へ向かうハドソンリバーブリッジ付近まで延びた。ファストパスの発券も開園から約1時間で終了した。オープン後初の三連休だった7月14日土曜日にも400分待ち、7月16日月曜日には過去最高となる500分待ちを記録した[4]。お盆休みの初日である8月13日月曜日にも500分待ちを記録した。
+オープン当初からスポンサーはついていなかったが、2015年7月1日より花王がオフィシャルスポンサーとして提供を開始した。
+2022年6月10日から有料の時間指定サービスである「ディズニー・プレミアアクセス」を導入する[5][6]。
+乗車前のアナウンスは日本語版をミスター・ポテトヘッドが担当している。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メディテレーニアンハーバーに設置された。2016年4月27日に初めて建設されることが公式発表され[2]、2019年1月18日には同年7月23日グランドオープンであることが発表された[3]。内容は、メディテレーニアンハーバーを見下ろす丘に建つ、人類が夢見た空を飛ぶことをたたえる博物館「ファンタスティック・フライト・ミュージアム」を訪れたゲストは、S.E.A.の一員のカメリア・ファルコのスピリットと不思議な出会いをし、彼女が仲間とともに開発した空を飛ぶ乗り物「ドリームフライヤー」に乗って風や匂いを感じながら、世界中の名所や大自然をめぐる雄大な空の旅を楽しむことができる。
+基本的に本編映像はソアリン・アラウンド・ザ・ワールドをベースとしているが、以下は東京ディズニーシーのオリジナル。
+クライマックス前、パリの夜景（エッフェル塔付近）のシーンが東京の夜景（レインボーブリッジ付近～東京タワー付近）に変更されている。
+冒頭の雲のシーンで、カメリアの相棒であるハヤブサのアレッタが飛んでいる（クライマックスの東京ディズニーシー上空にも登場する）。
+2019年2月21日より新菱冷熱工業が新たなスポンサーとして発表されており、当アトラクションを提供している。
+開業初日には待ち時間が最大で350分に達した[4]。また、開業と同時に公式アプリからファストパスを取得可能となったこともあり、開園から10～20分程でファストパスの発券が終了することが多い[5]。2022年5月19日から「ディズニー・プレミアアクセス」を導入している[6]。
+英語表記は上海ディズニーランドのものと同様に、「Soarin'」ではなく「Soaring」表記となっている。
+カメリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このアトラクションは、ウォルト・ディズニー・ワールド・リゾートのディズニー・ハリウッド・スタジオと、ディズニーランド・パリのウォルト・ディズニー・スタジオ・パークにあるアトラクション『トワイライトゾーン・タワー・オブ・テラー（The Twilight Zone Tower of Terror）』と類似したアトラクションである。しかし演出に関しては東京ディズニーシーの完全オリジナルストーリーであり、他のパークのように米国のテレビドラマ『トワイライトゾーン』をモチーフにした演出はされていない。東京ディズニーシーに他のパークと同じコンセプトで建設出来なかったのは、他のパークが全てハリウッドをテーマとしたパーク及びテーマゾーンにある事と、建物が『ハリウッド・タワー・ホテル』という設定である事から、ニューヨークを再現したアメリカンウォーターフロントでは地理的設定に矛盾が生じてしまうという問題があったからである。故に日本オリジナルのバックグラウンドストーリーを制作することになった。その為、建物の外観・内装・演出も他のディズニーパークのものとは異なっている。総工費は約210億円。
+他のアトラクションと比べ、バックグラウンドストーリーを強く打ち出している。東京ディズニーリゾート公式サイトではアトラクション独自のフラッシュを利用したスペシャルサイト（TOT1899.com）が2010年春頃まで開設されていた。
+フリーフォールタイプのアトラクションであり、落下時には強い浮遊感が味わえるので、東京ディズニーリゾート内のアトラクションでもスリルは格段に高い。この為、開業当初から「ディズニー史上最恐」というキャッチコピーが多用されている。また、体を固定する安全装置は3点式シートベルトのみである（ちなみに、海外では腹部のみを固定する2点式）。
+公式オープン日の2006年9月4日の13日前である同8月22日から8月29日にかけてスニークプレビュー、8月31日にプレスプレビューが行われた。
+オープン当日の2006年9月4日にはファストパス列、スタンバイ列共に長蛇の列となった。
+エレベーター内での演出は他のディズニーパークのものをベースにしているが、東京ディズニーシー独自のアレンジが施されている。
+エレベーター乗り場へ行くまでに、ロビーからウェイティングルームへ通され、大きなステンドグラスのある書斎（プライベートオフィス）でプレショーが行われる。ウェイティングルーム及び書斎は左右に2つあり、ロビーでキャストからどちらか一方の部屋へ案内される。その後秘密の倉庫を通って乗り場となるが、倉庫が1階と2階に分かれており、左右どちらに案内されるかによって1階か2階かが決まる。書斎は対称的に造られており、偶像「シリキ・ウトゥンドゥ（後述）」の置かれている位置が異なっている。倉庫の後に案内されるコレクションルームは、6つとも全ての部屋の装飾が異なっている。
+エレベーターシャフトは全部で3本あり、それぞれツアーA、B、Cと名前が付いている。またそれぞれのツアーは前述の通り、乗り場が1階と2階に分かれている。つまり、乗り場は全部で6箇所あり、ライドも全部で6機ある。1階のライドはエレベーターシャフトに装填され稼働（上昇、降下）した後、再び1階の乗り場に戻る。1階のライドにゲストが乗り降りしている間に2階のライドが稼働し、再び2階の乗り場に戻る。2階のライドに乗り降りしている間に1階のライドが稼働するという具合である。これにより回転率を上げている。
+閑散期は2つのツアーが稼働しており、残り1つのエレベーターはメンテナンスが行われる。この為、他のアトラクションと異なりメンテナンスで終日運休となる事例が少ない。
+エレベーターの動きはプログラミングによって変更する事が可能となっている[1]。開業からしばらくは落下パターンや落下回数に違いは無かったが、2012年1月から3月の期間限定で新たなプログラムを導入したイベント「タワー・オブ・テラー：Level 13」が開催された（後述）。
+建物の高さは59メートル。プロメテウス火山とシンデレラ城が51メートルであり、東京ディズニーシー、東京ディズニーランドの両パークを合わせても、当アトラクションが最も高い建物である。60メートルにしない理由は、航空法により60メートル以上の建物を建設する際、航空障害灯の設置が義務付けられており、パーク内の建物として景観を損ねないようにする為である。
+なおエレベーターは建物の最上部から落下するわけではなく、実際の最高到達点は建物の高さに比べ、かなり低い（建物の中程にあるアーチ状のひさし部分が最高到達点で、高さは約38メートル）。最高到達点には扉があり、普段は閉まっているが、エレベーターが到達する直前に開き、アトラクションに乗ったゲストは一瞬ではあるが外の景色を眺める事ができる。その後エレベーターが落下すると扉も閉まる。これは海外のタワー・オブ・テラーと共通である。
+「スプラッシュ・マウンテン」や「インディ・ジョーンズ・アドベンチャー：クリスタルスカルの魔宮」と同じように、乗車中に写真撮影が行われる。場所はエレベーターが最高到達点（38メートル地点）に到着、外の景色が見え、落下する直前である。この時、緑色の光に紛れてフラッシュが焚かれている。この緑色の光は屋外からも確認することができる（後述）。期間限定プログラム
+タワー・オブ・テラー：Level 13
+タワー・オブ・テラー：Level 13 ( - レベルサーティーン、Tower of Terror: Level 13)は、2012年から2014年のキャンパスデーパスポートの販売期間と同時期に開催されたプログラム。初開催となる2012年に放映されたCMでは「史上最キャーー」というキャッチコピーが使用された。
+レギュラーバージョンと異なる点は下記の通り。特に、エレベーターの動きが変更されたのは開業以来初めてであった。
+落下回数が4回であり、不規則な動きをするようになった[1]。
+最高点に到達するのは1回のみで、落下の動きも変更された。
+ハリソン・ハイタワー三世の部屋の直後など、全体的に赤い光による演出が追加された。それに加えて、舞踏室(Ballroom)の前の段階で急上昇・急降下する演出がある。
+舞踏室での台詞と、鏡に映った乗客の体が緑色に変わる演出が無くなった。
+最後にワイヤーが切られ、エレベーターが床に落下する音が加わった。
+書斎でのプレショーの最後、ステンドグラスにシリキ・ウトゥンドゥが飛んでいく映像が追加された。
+開催期間
+2012年1月4日 - 3月16日
+2013年1月4日 - 3月15日
+2014年1月6日 - 3月14日
+2024年1月9日 - 2月4日[3]
+タワー・オブ・テラー：Level 13 “シャドウ・オブ・シリキ”
+タワー・オブ・テラー：Level 13 “シャドウ・オブ・シリキ” (Tower of Terror: Level 13 “Shadow of Shiriki”)は、2015年から2018年[4]のキャンパスデーパスポートの販売期間と同時期に開催されたプログラム。2014年までのLevel 13とはエレベーターの動きが大幅に変わり、新たな演出が加わった。
+落下回数が7回に増え、エレベーターの動きも大幅に変更された。
+ハイタワー三世がシリキ・ウトゥンドゥに呪われエレベーターから落とされる時に、部屋が宇宙空間になる演出が無くなった代わりに、途中で宇宙空間が広がりシリキ・ウトゥンドゥの顔が迫ってくる演出が追加された。
+途中でエレベーターのケーブルを切断するシリキ・ウトゥンドゥの影が映る演出が追加された。
+開催期間
+2015年1月6日 - 3月20日
+2016年1月6日 - 3月18日
+2017年1月6日 - 3月17日
+2018年1月5日 - 3月19日
+2024年2月5日 - 4月7日
+タワー・オブ・テラー “アンリミテッド”
+タワー・オブ・テラー “アンリミテッド” (Tower of Terror “Unlimited”)は、2019年からのキャンパスデーパスポートの販売期間と同時期に開催されているプログラム。通常版と過去の期間限定プログラム2つを含む複数の落下パターンを体験できる特別バージョンとなっている[5]。2024年は開催されず、上記のLevel 13とシャドウ・オブ・シリキが復刻開催された。
+開催期間
+2019年1月7日 - 3月20日
+2020年1月6日 - 2月28日
+2022年1月6日 - 3月30日
+2023年1月4日 - 3月17日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このアトラクションはミステリアスアイランドにあり、フランスの小説家ジュール・ベルヌの代表作『地底旅行』（仏：Voyage au centre de la Terre）をモチーフにしている。
+ゲストは地底走行車とよばれる乗り物に乗り込み、神秘に満ちた地底の世界を探検する。地底走行車はゆっくりとしたスピードで進むが、ライド終盤にはスピードをつけ急上昇、急降下をする。その最高速度は時速75キロメートルに達し[1]、東京ディズニーリゾートのアトラクションの中では最速である。
+ライドの原動力は従来のコースターライドのようにリフトコンベヤーで引っ張られ、その後重力に従い旋回や落下を繰り返すというものではなく、ライドとコースにコンピュータが備え付けられており、それらのコンピュータでライドのスピードやライド同士の間隔などを調整している。またライドにはフォーミュラ1のレースカー並の動力をもつモーターを搭載し、その動力によって加速や減速を行っている。モーターと路面の摩擦係数の計算の結果、路面は航空母艦の甲板に用いられているものと同じ素材を塗装している[2]。
+2010年の定期点検にて乗り場へホームドアが設置された。
+ストーリー
+科学者はネモ船長（声：江守徹）の研究室のある「マグマサンクタム」から、「テラヴェーター」で地中深く800m[3]にある「ベースステーション」へ向かう。
+ベースステーションからは地底走行車に乗り込み、「水晶の洞窟」や「発光生物のトンネル」、様々な生き物が棲息する「巨大キノコの森」などの地底世界を進んでいく[3]。
+ところが突然火山性地震が科学者を襲い、地底走行車はコースを大きく外れまだ誰も到達したことのない地底奥深くへと迷い込んでしまう。嵐で荒れる「地底の海」に迷い込み落雷を受け地底走行車は制御が効かなくなってしまう。すると突如姿を表した巨大な怪物「ラーヴァモンスター（声：フランク・ウェルカー）」が出現。ゲストの地底走行車も襲われそうになった直後大規模噴火が発生し、地底走行車は溶岩の圧力に押し上げられて火道[4]内を急上昇、噴火口から吐き出され落下してプロメテウス火山のカルデラを走り抜け、「地熱貯蔵庫」に無事到着する。
+マグマサンクタムツアー
+アトラクションが定期メンテナンスなどの事情で終日休止している時には、テラヴェーター直前までのQライン（待ち列）を見学する「マグマサンクタムツアー」(火山の洞窟ツアー)が開かれることがある。これは、テラヴェーターまでのQラインには通常並んでいるだけでは見ることができないほどの、ネモ船長の研究室を演出するための沢山の小道具を、アトラクションが休止中にじっくり見て回るというもの。公表されているサービスではないため、東京ディズニーリゾート公式サイトや東京ディズニーシー・トゥデイに記載されていない。そのため、実施されているかどうかはアトラクション入り口まで行ってキャストに確認する必要があり、アトラクションが長期に渡り休止していても実施されないこともある。
+補足事項
+マグマサンクタムはネモ船長が見つけた「自然の洞窟」である。この話はマグマサンクタムツアーで聞くことができる。
+テラヴェーターには深度、二酸化炭素濃度、蒸気圧を示す計測器がある。[5]
+ネモ船長は水晶の洞窟で採った水晶を利用してオーケストラを作りたいと考えている。この話はマグマサンクタムツアーで聞くことができる。
+発光生物の飛び方には法則性があり群れで飛んでいる。マグマサンクタムにある発光生物のレポートで確認ができる。
+ラヴァモンスターの隣にある襲われた地底走行車には爪痕がある。これは実際に地底走行車に乗ると直接確認ができる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディズニーMGMスタジオ（現：ディズニー・ハリウッド・スタジオ）における、インディ・ジョーンズ・エピック・スタント・スペクタキュラー! (Indiana Jones Epic Stunt Spectacular!) の大成功を受けて、ディズニーランドに新たにインディ・ジョーンズをモチーフにした恒常的なアトラクションを建設する計画が正式に発足。これを受けて完成したのが当アトラクションである。開発が1990年代であるため、カリブの海賊などの初期アトラクションに比べてエンハンスト・モーション・ビークル(英語版)を始めとする、遥かに高度な、コンピューター制御によるライド運行やオーディオアニマトロニクスが実現している。
+映画『インディ・ジョーンズ/魔宮の伝説』をモチーフに、遺跡の観光ツアーでジープに乗り込み、神殿の守護神の怒りを買い、猛スピードで罠や呪いを駆け抜けるという設定は全てのパークで共通しているが、探検に関するストーリーはパーク毎に異なる。東京ディズニーシーのロストリバーデルタに存在する。ゲストは遺跡の観光ツアーに参加し、伝説の永遠の若さ（不老不死）が得られるという若さの泉を探す内容である[1]。いわゆるディズニーランドのアトラクションの日本版であるが、守護神となるキャラクターが異なりディズニーランドでは「マーラ」という像が登場するのに対し、東京ディズニーシーのものは「水晶髑髏」が登場する。クリスタルスカルは大蛇や炎を吹く石像などに姿を変えてゲストに襲いかかる。
+遺跡の外観は、ユカタン半島にあるマヤ文明のチチェン・イッツァ遺跡 (en:Chichen Itza) などがモチーフとなっている。
+このアトラクションはTDS内にある「タワー・オブ・テラー」や、東京ディズニーランドの「スプラッシュ・マウンテン」と同じようにアトラクション中に写真が撮影される場所がある。その撮られた写真はアトラクション出口右にある「エクスペディション・フォトアーカイヴ」で購入可能である[1]。撮影される場所はアトラクション終盤、ロープに掴まっているインディの後ろから巨大な岩が転がってくる所である。左上を見るようにするとカメラ目線で写ることができる。
+なお、2008年公開のインディ・シリーズ第四作は『インディ・ジョーンズ/クリスタル・スカルの王国』 (Indiana Jones and the Kingdom of the Crystal Skull) であるが、本アトラクションとは共通点は無く、むしろ第一作の『レイダース/失われたアーク《聖櫃》』との共通点が多い。
+シングルライダーに対応している。利用する場合はまずプライオリティ・アクセス・エントランスに立っているキャストにシングルライダーで利用する旨を伝えそのまま進み、ファストパスとスタンバイ（通常入場口）の合流地点にいるキャストにシングルライダーである旨を伝えれば、プライオリティパスとスタンバイの合流列とは別にあるシングルライダー専用通路へ案内される。以前はスタンバイ列の途中に2か所プライオリティパス列に合流できる分岐点があり、そこから入っていくようになっていた。現在でも、スタンバイ列の途中からプライオリティパス列に入ることが可能である。
+2023年7月26日から「40周年記念プライオリティパス」を導入している。
+DATA
+その他のデータ[1]
+最高速度：約24km/h
+走行距離：約620m
+神殿の高さ：約25m
+ストーリー
+1930年代の中央アメリカ。考古学者のインディ・ジョーンズ博士と助手のパコは遺跡の発掘作業にあたっていた。そんな中、助手のパコは金儲けをたくらみ、内緒で「若さの泉」を探す遺跡の観光ツアーを計画してしまう。その観光ツアーに参加しに来たゲストが神聖な神殿に踏み込んだことにクリスタルスカルは激怒。ゲストの行く先々で姿を変えて襲いかかる[1]。
+トリビア
+ディズニーランド関連
+副題は「禁断の瞳の魔宮」ではなく、「魔眼の神殿」と書かれている書籍も存在する。
+東京ディズニーシー関連
+ライドに搭乗するまでのキューライン（待ち列）にあるインディ博士の仕事場には世界各国の新聞（日本は「國際ジャーナル」という新聞）が置いてあり、そこには遺跡と一人の男が写った写真があるが、そこに写っている人物はこのアトラクションのスポンサーであるパナソニック株式会社の創業者の松下幸之助である。また、その新聞の日付は1935年9月4日になっている。
+キューラインにはパナソニック株式会社のブランドの一つである「ナショナル」の電球が置かれている。
+かなり速く感じるが、実際の速度は時速24Kmとディズニーリゾートの絶叫系アトラクションではかなり遅い。
+キューラインで流れるラジオは、ユカタン・ベースキャンプ・グリルやロストリバーデルタのパークインフォメーションボードを掲示する小屋でも聴くことができる。
+アトラクション終了後、パコが「若さの泉は見つかった？え～？それは残念。次はきっと見つかるよ！」と言っている。若さの泉を直接見ることは出来ないが（アトラクションの中見られる泉のようなものは、全てダミー）、若さの泉と思われる反射した光が壁に映っているのを確認することは出来る[1]。
+ジョーンズ博士やクリスタルスカルの台詞は、色々なパターンがある。
+ペンシルベニア州立アンドリュー大学が遺跡の発掘を支持しており、周辺のゴミ箱には大学名が書かれている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2005年7月21日に東京ディズニーシー内のロストリバーデルタに開業した、東京ディズニーシー開業以来初めての追加アトラクションである。東京ディズニーリゾートで初めて垂直方向に360度回転するループが設置された。また、ディズニーランド・パリに設置されている「インディ・ジョーンズと危難の魔宮」が原型となっており、スイスのインタミン社が同じく設計に携わっている。
+すでに東京ディズニーシーにはインディ・ジョーンズの名を冠した全く別のアトラクション「インディ・ジョーンズ・アドベンチャー：クリスタルスカルの魔宮」があり、パリ版から「インディ・ジョーンズ」の名称と内容を除去し、独自の物語が付与された。ただし、マヤやインカの遺跡とトロッコをモチーフにした外観やアトラクション内容は同じである。総工費は約80億円。
+開業当初は東京ディズニーリゾートで、一番身長制限が厳しいアトラクションだった。当初の予定では、東京ディズニーリゾートにあるアトラクションの身長制限の基準でもある「104cm以下は乗車できない」と発表されていたが、開業前に試験走行を重ねた結果、当初の想定よりも横揺れが激しいことが判明し、安全性の確保の為に最低身長制限が引き上げられ、より厳しい制限（身長140cm以上195cm未満で、かつショルダーバーを下げた時に背もたれまでの間隔が15cm以内）になった。2006年9月にはレールの総張り替え工事が行われ、以前よりも横揺れは軽減された。
+2009年7月1日には「身長117cm以上」という条件に引き下げられ、より小さな子供でも乗車できるようになった。身体条件を満たすか不明な場合は、列に並ぶ前にキャストに申し出れば、乗り場下に用意された特別な座席で確認できる。
+アトラクション導入当初からシングルライダーを実施している。他のアトラクションと異なり、シングルライダー専用エントランスがある為常時シングルライダーの実施を行っているが、スタンバイ列が短いとキャストが勧めない場合もある。シングルライダーを利用する際には、ファストパス・エントランス（優先入場口）に立っているキャストにシングルライダーであること伝えるとシングルライダー専用エントランスに通してもらえる。2019年未明よりシングルライダー専用エントランスは廃止され、他のアトラクション同様ファストパス・エントランスを通って利用するようになった。
+荷物は全て持ち込んで乗車となるが、大きな荷物を持っていたり、乗車中に落ちてしまうのが心配な人の為に、アトラクション専用のコインロッカーが設置されている。場所はアトラクションの出口を乗り場方面へしばらく進んで左側にある。鍵を掛ける際に100円玉が1枚必要となるが、3時間以内であれば返却される仕組みとなっている。ロッカーに預けて鍵を掛けたらそのままエントランスへ向かえばよい。特に乗車中破損の恐れのある物は、ロッカーに預けてから乗車した方が無難である。コースター内に荷物を持ち込んだ際は足と足の間に挟むような形で乗れば遠心力がかかるので荷物が落ちることはない。
+2023年7月26日から「40周年記念プライオリティパス」を導入している。
+物語
+中央アメリカのとあるジャングルで、古代神の遺跡が発掘されている。そこには火の神の「イクチュラコアトル」と水の神の「アクトゥリクトゥリ」が祀られている。発掘当初、遺跡発掘チームは当時2つの神の像が向かい合わせに立っていたという推測の下、復元を開始する。しかし、古文書解読チームはそれが間違いであることに気付き、急いで発掘チームに報告をして遺跡に向かうが、駆けつけた時には、向かい合わせになった2つの神の怒りを買い、怒り狂った力で遺跡は超常現象に包まれていた。水の神からは大量の水が噴き出し、火の神からは炎が燃え上がり、さらにホッパーカー（貨車）のレールまで360度ねじ曲げられた。その為、遺跡の発掘調査は中断を余儀なくされる[1]。
+それからしばらく経ってから、遺跡発掘チームが神の像を正しい向きに戻そうとしている中、遺跡が一般公開される事となった。訪れたゲストはホッパーカーに乗って見学し、発生している様々な超常現象を目の当たりにする。
+スペック
+最高速度：60km/h[1]
+所要時間：1分30秒[1]
+走行距離：約600m[1]
+乗車定員：12名（2名×3列×2両）
+総工費：約80億円
+ライド数：8台（最大運営台数：6台）　開業初日にはスタンバイ・ファストパス共に長蛇の列となった。スタンバイの列は最高4時間待ちを記録し、ファストパスの列はアラビアンコースト・マーメイドラグーン・ロストリバーデルタを経由してポートディスカバリー近くにまで達した。また、当日午後にシステム調整を行うとして運営を一時中止し、再開が同日夕方となり、最終的に運営が終了したのは23時30分近くとなった。
+火の神の石像「イクチュラコアトル」と、水の神の石像「アクトゥリクトゥリ」は、設定の通り遺跡内で向かい合わせになっている。イクチュラコアトルは水平旋回部分の近くにある祭壇に吊されており、アクトゥリクトゥリはキューラインからよく見えるループ部分の傍らで常に口から水を吐き出し、頭の部分は常に動いている。
+待ち列の途中で遺跡発掘チームの研究室があるが、設計図や想像図のスケッチから見ると、神の怒りのポイントはほとんどわからなかったといえる。
+ファストパス用入場口の傍にある木箱の送付先は、「USA NEWYORK PARK AVE HIGH TOWER TRUST」となっている。ホテルハイタワー内には、ハリソン・ハイタワー三世がこの場所を訪れたと思われる写真や、レイジングスピリッツの遺跡から神像を持ち帰っている絵画が展示されている。待ち列には何匹かコウモリがいる。
+待ち列のレール側にある関係者専用口には、「ここから先は現場監督の許可が必要です」と書かれた看板が掛かっている。
+乗り物の巻き上げ中に流れる「必ず頭を後ろにつけて下さい」というアナウンスは、スタンバイ列に設置されているモニターから流れる注意事項と同じものが使用されている。
+巻き上げに使われているチェーンは、レールの両サイドに計2本ある。パリ版は1本のみである。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>映画『アラジン』とは異なる独自のストーリーが展開される。
+2023年7月26日から「40周年記念プライオリティパス」を導入している。
+ストーリー
+自らを世界一のマジシャンと称するシャバーン。しかし、その腕は誰がどう見ても素人芸という有様だった。その見習いアシームは、不思議な超能力を持つランプの魔人ジーニーと友達になるが、ジーニーの力を借りて世界で最も偉大なマジシャンになろうとシャバーンがランプを取り上げてしまう。そして、ジーニーと手を組んでシャバーンは世界一のマジシャンとなりめでたしめでたしと思いきや、ジーニーばかりが人気者となってしまう。妬んだシャバーンはある夜、ジーニーが眠っている間にランプごと箱の中に閉じ込めて鍵をかけてしまう。ゲストが訪れるのは、その翌日に開催されるシャバーン初めてのワンマンショー。そこでシャバーンのハチャメチャなマジックを体験する。ランプの入った箱の鍵をアシームは見つけ、親友のジーニーと再会できるのか? また、シャバーンは1人でマジックを成功させることが出来るのか?[1]
+その他
+アトラクションに出演しているシャバーンとアシームは、2012年から2014年の各年4月から6月に行われたイベント「ミッキーとダッフィーのスプリングヴォヤッジ」のミニショー「スプリングタイム・サプライズ」に登場していた。また、2015年から2018年に東京ディズニーシーで行われた「ディズニー・ハロウィーン」では中庭およびカスバ・フードコートにおいてアトモスフィアショーを行った。
+詳細は「ミッキーとダッフィーのスプリングヴォヤッジ」および「ディズニー・ハロウィーン#2015年」を参照
+シアタータイプのアトラクションだが、演者のアシームとシャバーンだけは実際の演者が演じており、ジーニーは映像で登場する。クライマックスでは、アシームがステージ袖に消えてスクリーンの映像に登場する。
+序盤はシャバーンとアシームの2人で進行するため、季節や時間帯に合わせてアドリブでゲストに問いかけるなど、回や演者によって内容が変化する。
+シャバーンとアシームは、自由に発言する場面も多く「夢の国」といったパークの隠語や「ここは休憩所ではない」といったシアタータイプのアトラクションという事ならではの発言など、世界観の設定から逸脱した発言をすることもある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タートル・トーク(Turtle Talk with Crush)はCGで再現された、映画『ファインディング・ニモ』に登場するウミガメのキャラクター「クラッシュ」とゲストが会話をしながら楽しむ参加型ショーのアトラクション。
+アトラクション内は正面に巨大なスクリーンが設置されている。スクリーンは、海と客席とを隔てるガラス窓という設定であり、スクリーンにはCGでどこまでも広がる海とクラッシュ用のマイク（東京ディズニーシー版では、このマイクのことをハイドロフォンと呼んでいる）が再現されている。
+ショーは、司会進行役のキャストとクラッシュによって進められる。クラッシュの声は、ゲストからは見えない位置にいる声役のキャストによって発せられ、その声に合わせてCGのクラッシュが動くようになっている。CGは映画版と同等のクオリティで構成されている上、声の発音に合わせてコンピューターが声を認識、かつ瞬時に適切な口の動きをするようになっており、ゲストは実際にクラッシュと会話をしているような体験をすることができる。アトラクション内では、前方エリアの小さな座席に主に子供のゲストが、後方の映画館の座席のようなエリアに大人のゲストが座るようになっており（東京ディズニーシー版の前方エリアは小さめのベンチになっている）、前方エリアにいる子供のゲストがクラッシュに質問したり、クラッシュの質問に答えたりすることができる（東京ディズニーシーでは、クラッシュが後方エリアのゲストも指名する）。子供に対する質問などは司会役のキャストが誘導する。クラッシュ役のキャストはゲスト全体が見渡せる位置におり（もしくは遠隔で見えるようになっており）、質問をするゲストの身振り手振りや服装などについても言及することがある。
+登場キャラクターはクラッシュだけでなく、ナンヨウハギの「ドリー」が通りかかり、話しかけてくることもある。
+このような内容のアトラクションであるため、ショーの内容は毎回異なり、ショーが面白いか否かは、クラッシュの声を担当するキャストの話術と司会役のキャストの進行の技量によるところが大きい。
+なお、このアトラクションの基本構造をそのままにキャラクターや設定を変えたアトラクションが2つある。一つは香港ディズニーランドなどにある、クラッシュを映画『リロ・アンド・スティッチ』の「スティッチ」に置き換え、設定はスティッチの侵入した宇宙船に変更した「スティッチ・エンカウンター」で、もう一つはフロリダのマジック・キングダムにある、クラッシュを映画『モンスターズ・インク』の「マイク」に置き換え、設定はモンスターズ社に変更した「モンスターズ・インク・ラフフロアー」である。
+2016年、映画「ファインディング・ドリー」の公開に合わせてリニューアルが行われており、ニモ、マーリン、スクワートの他、ファインディング・ドリーからデスティニー、ハンク、ベイリーが新たに登場した[1]。リアルタイムでディズニーの仲間と直接会話が出来るシステムは東京ディズニーリゾート内で初の試みとなる。
+2008年10月29日、東京ディズニーシー (TDS)を運営しているオリエンタルランド社 (OLC)の広報部より当アトラクションの導入決定を一般公開した。[2] 総工費は約13億円。
+設置エリアはアメリカンウォーターフロントにあるS.S.コロンビア号の船尾で、入口はS.S.コロンビア・ダイニングルームとテディ・ルーズヴェルト・ラウンジの入口の左側にあり、「TURTLE TALK」とクラッシュが書かれたアーチが設置されている。
+S.S.コロンビア号などの写真が飾ってある「ミュージアム」という部屋を通ったゲストは、「レクチャールーム」に入る。ここではスライドを使ってのアトラクションやハイドロフォンの説明やショーで使う言葉の練習などをする。それらのプレショー終了後に船尾にある海底展望室に行き、ハイドロフォンを使ってクラッシュと会話する。海底展望室の窓（スクリーン）には海の世界が広がっており、ゲストが呼ぶとクラッシュが遊びにやってくる。ちなみに、クラッシュとの会話に使うハイドロフォンとは、研究者達が海の仲間たちと人が会話できるために開発した最新式の装置で、この装置を使ってゲストはクラッシュと会話するという設定。
+2008年1月26日には当日、TDSを親子で訪れたゲストの中からキャストが声をかけ、了解を得たゲスト対象にプレイテストが行われた。2009年9月19日から海底展望室の準備ができた日に限り、スニークプレビューとして一般公開を実施しており、9月24日に報道陣とエキストラに公開。また、8月には入口のアーチは完成されていた。
+なお、2014年9月4日より講談社がこのアトラクションのオフィシャルスポンサーとなった。
+新キャラクターなどを追加するリニューアルを行うため、同アトラクションは2017年2月9日より一時的なクローズとなり、ポートディスカバリーの新アトラクション、ニモ&amp;フレンズ・シーライダーのグランドオープンと同日の2017年5月12日にリニューアルオープンした[3]。
+2023年現在、東京ディズニーリゾート内でのファストパス発券は終了。
+2023年7月26日から「40周年記念プライオリティパス」を導入している。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5571,1715 +6532,2042 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446E092C-FB4F-FC42-ACA8-84F8CC2B2AA1}">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:DN114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="10" width="12" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="31">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:118">
+      <c r="A1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:118" ht="409.6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:118" ht="409.6">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="N3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="P3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:118" ht="409.6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="409.6">
-      <c r="B2">
+      <c r="P4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BU4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CM4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CN4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CO4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CP4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CQ4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CS4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CU4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="CW4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CX4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CY4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CZ4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DB4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DE4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="DF4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DG4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DH4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DI4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DJ4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="DK4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="DM4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="DN4" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:118" ht="409.6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:118" ht="409.6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="409.6">
-      <c r="B3">
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="409.6">
-      <c r="B4">
+      <c r="F6" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="409.6">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="409.6">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:118" ht="409.6">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="U7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:118" ht="409.6">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="V8" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:118" ht="409.6">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="409.6">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="409.6">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="409.6">
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="409.6">
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="409.6">
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="409.6">
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="409.6">
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="409.6">
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="409.6">
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="409.6">
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="409.6">
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" ht="409.6">
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="AF9" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" ht="409.6">
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="AG9" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" ht="409.6">
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="AH9" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" ht="409.6">
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="AI9" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" ht="409.6">
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="AJ9" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" ht="409.6">
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="AK9" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" ht="409.6">
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="AL9" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" ht="277">
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="AM9" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" ht="409.6">
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="AN9" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" ht="409.6">
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="AO9" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" ht="189">
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J28" s="1" t="s">
+      <c r="AP9" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" ht="409.6">
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="AQ9" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" ht="357">
-      <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="J30" s="1" t="s">
+      <c r="AR9" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" ht="409.6">
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="AS9" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" ht="409.6">
-      <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="AT9" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" ht="409.6">
-      <c r="B33">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="AU9" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" ht="252">
-      <c r="B34">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="AV9" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" ht="336">
-      <c r="B35">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="AW9" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" ht="231">
-      <c r="B36">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" s="1" t="s">
+      <c r="AX9" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" ht="409.6">
-      <c r="B37">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="1" t="s">
+      <c r="AY9" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" ht="189">
-      <c r="B38">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J38" s="1" t="s">
+      <c r="AZ9" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" ht="409.6">
-      <c r="B39">
-        <v>38</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="1" t="s">
+      <c r="BA9" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" ht="409.6">
-      <c r="B40">
-        <v>39</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J40" s="1" t="s">
+      <c r="BB9" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" ht="294">
-      <c r="B41">
-        <v>40</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J41" s="1" t="s">
+      <c r="BC9" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" ht="409.6">
-      <c r="B42">
-        <v>41</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J42" s="1" t="s">
+      <c r="BD9" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" ht="252">
-      <c r="B43">
-        <v>42</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J43" s="1" t="s">
+      <c r="BE9" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" ht="222">
-      <c r="B44">
-        <v>43</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J44" s="1" t="s">
+      <c r="BF9" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" ht="399">
-      <c r="B45">
-        <v>44</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J45" s="1" t="s">
+      <c r="BG9" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" ht="409.6">
-      <c r="B46">
-        <v>45</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J46" s="1" t="s">
+      <c r="BH9" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" ht="252">
-      <c r="B47">
-        <v>46</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J47" s="1" t="s">
+      <c r="BI9" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" ht="409.6">
-      <c r="B48">
-        <v>47</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J48" s="1" t="s">
+      <c r="BJ9" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" ht="409.6">
-      <c r="B49">
-        <v>48</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J49" s="1" t="s">
+      <c r="BK9" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" ht="315">
-      <c r="B50">
-        <v>49</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J50" s="1" t="s">
+      <c r="BL9" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" ht="409.6">
-      <c r="B51">
-        <v>50</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J51" s="1" t="s">
+      <c r="BM9" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" ht="252">
-      <c r="B52">
-        <v>51</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J52" s="1" t="s">
+      <c r="BN9" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="53" spans="2:10" ht="399">
-      <c r="B53">
-        <v>52</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J53" s="1" t="s">
+      <c r="BO9" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" ht="189">
-      <c r="B54">
-        <v>53</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J54" s="1" t="s">
+      <c r="BP9" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" ht="231">
-      <c r="B55">
-        <v>54</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" ht="252">
-      <c r="B56">
-        <v>55</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" ht="273">
-      <c r="B57">
-        <v>56</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" ht="235">
-      <c r="B58">
-        <v>57</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" ht="168">
-      <c r="B59">
-        <v>58</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" ht="409.6">
-      <c r="E60" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" ht="409.6">
-      <c r="E61" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" ht="409.6">
-      <c r="E62" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" ht="147">
-      <c r="E63" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" ht="231">
-      <c r="E64" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="65" spans="5:10" ht="210">
-      <c r="E65" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="66" spans="5:10" ht="168">
-      <c r="E66" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="67" spans="5:10" ht="126">
-      <c r="E67" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="68" spans="5:10" ht="252">
-      <c r="E68" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="5:10" ht="126">
-      <c r="E69" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="5:10" ht="105">
-      <c r="E70" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="5:10" ht="105">
-      <c r="E71" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="5:10" ht="105">
-      <c r="E72" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="5:10" ht="147">
-      <c r="E73" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="5:10" ht="105">
-      <c r="E74" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="75" spans="5:10" ht="105">
-      <c r="E75" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" spans="5:10" ht="126">
-      <c r="E76" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="77" spans="5:10" ht="63">
-      <c r="E77" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" spans="5:10" ht="84">
-      <c r="E78" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="5:10" ht="105">
-      <c r="E79" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="5:10" ht="378">
-      <c r="E80" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5" ht="168">
-      <c r="E81" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="5:5" ht="336">
-      <c r="E82" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="5:5" ht="357">
-      <c r="E83" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5" ht="357">
-      <c r="E84" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="5:5" ht="252">
-      <c r="E85" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="5:5" ht="399">
-      <c r="E86" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="87" spans="5:5" ht="168">
-      <c r="E87" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="5:5" ht="84">
-      <c r="E88" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="89" spans="5:5" ht="105">
-      <c r="E89" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="90" spans="5:5" ht="210">
-      <c r="E90" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="91" spans="5:5" ht="105">
-      <c r="E91" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" spans="5:5" ht="126">
-      <c r="E92" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="93" spans="5:5" ht="126">
-      <c r="E93" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="94" spans="5:5" ht="147">
-      <c r="E94" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="95" spans="5:5" ht="210">
-      <c r="E95" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="96" spans="5:5" ht="126">
-      <c r="E96" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="97" spans="5:5" ht="105">
-      <c r="E97" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="98" spans="5:5" ht="126">
-      <c r="E98" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="99" spans="5:5" ht="126">
-      <c r="E99" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="100" spans="5:5" ht="84">
-      <c r="E100" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="101" spans="5:5" ht="147">
-      <c r="E101" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="102" spans="5:5" ht="105">
-      <c r="E102" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="103" spans="5:5" ht="336">
-      <c r="E103" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="104" spans="5:5" ht="84">
-      <c r="E104" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="105" spans="5:5" ht="231">
-      <c r="E105" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="106" spans="5:5" ht="189">
-      <c r="E106" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="107" spans="5:5" ht="273">
-      <c r="E107" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="108" spans="5:5" ht="126">
-      <c r="E108" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="109" spans="5:5" ht="126">
-      <c r="E109" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="110" spans="5:5" ht="105">
-      <c r="E110" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="111" spans="5:5" ht="189">
-      <c r="E111" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="112" spans="5:5" ht="147">
-      <c r="E112" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="113" spans="5:5" ht="105">
-      <c r="E113" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="114" spans="5:5" ht="84">
-      <c r="E114" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="115" spans="5:5" ht="409.6">
-      <c r="E115" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="116" spans="5:5" ht="210">
-      <c r="E116" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="BQ9" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:118">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:118">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:118">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:118">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:118">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:118">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:118">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="C42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="C43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="C44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="C45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="C46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="3:10">
+      <c r="C47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="C48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="C49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="C51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="3:10">
+      <c r="C52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="C54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="3:10">
+      <c r="C55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="3:10">
+      <c r="C56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="3:10">
+      <c r="C57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="3:10">
+      <c r="E58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="3:10">
+      <c r="E59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="3:10">
+      <c r="E60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="3:10">
+      <c r="E61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="3:10">
+      <c r="E62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="3:10">
+      <c r="E63" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="3:10">
+      <c r="E64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="5:10">
+      <c r="E65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="5:10">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="5:10">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="5:10">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="5:10">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="5:10">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="5:10">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="5:10">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="5:10">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="5:10">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="5:10">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="5:10">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="5:10">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="5:10">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="5:10">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="5:10">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="5:5">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="5:5">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="5:5">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="5:5">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="5:5">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="5:5">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="5:5">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="5:5">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="5:5">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="5:5">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="5:5">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="5:5">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="5:5">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="5:5">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="5:5">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="5:5">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="5:5">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="5:5">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="5:5">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="5:5">
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="5:5">
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="5:5">
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="5:5">
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="5:5">
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="5:5">
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="5:5">
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="5:5">
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="5:5">
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="5:5">
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="5:5">
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="5:5">
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="5:5">
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="5:5">
+      <c r="E114" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
